--- a/stata/output/geo_coded_LFL.xlsx
+++ b/stata/output/geo_coded_LFL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40253" uniqueCount="2596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48556" uniqueCount="2596">
   <si>
     <t>State</t>
   </si>
@@ -8492,28 +8492,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F10" s="0">
-        <v>33.745472499999998</v>
+        <v>33.7879139</v>
       </c>
       <c r="G10" s="0">
-        <v>-117.867653</v>
+        <v>-117.8531007</v>
       </c>
       <c r="H10" s="0">
-        <v>-117.867653</v>
+        <v>-117.8531007</v>
       </c>
       <c r="I10" s="0">
-        <v>33.745472499999998</v>
+        <v>33.7879139</v>
       </c>
       <c r="J10" s="0">
         <v>12</v>
@@ -8563,28 +8563,28 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>371</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F11" s="0">
-        <v>33.7879139</v>
+        <v>33.745472499999998</v>
       </c>
       <c r="G11" s="0">
-        <v>-117.8531007</v>
+        <v>-117.867653</v>
       </c>
       <c r="H11" s="0">
-        <v>-117.8531007</v>
+        <v>-117.867653</v>
       </c>
       <c r="I11" s="0">
-        <v>33.7879139</v>
+        <v>33.745472499999998</v>
       </c>
       <c r="J11" s="0">
         <v>12</v>
@@ -8705,28 +8705,28 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E13" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F13" s="0">
-        <v>37.694097300000003</v>
+        <v>37.681874499999999</v>
       </c>
       <c r="G13" s="0">
-        <v>-122.08635219999999</v>
+        <v>-121.7680088</v>
       </c>
       <c r="H13" s="0">
-        <v>-122.08635219999999</v>
+        <v>-121.7680088</v>
       </c>
       <c r="I13" s="0">
-        <v>37.694097300000003</v>
+        <v>37.681874499999999</v>
       </c>
       <c r="J13" s="0">
         <v>15</v>
@@ -8776,28 +8776,28 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F14" s="0">
-        <v>37.681874499999999</v>
+        <v>37.694097300000003</v>
       </c>
       <c r="G14" s="0">
-        <v>-121.7680088</v>
+        <v>-122.08635219999999</v>
       </c>
       <c r="H14" s="0">
-        <v>-121.7680088</v>
+        <v>-122.08635219999999</v>
       </c>
       <c r="I14" s="0">
-        <v>37.681874499999999</v>
+        <v>37.694097300000003</v>
       </c>
       <c r="J14" s="0">
         <v>15</v>
@@ -8847,28 +8847,28 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>371</v>
       </c>
       <c r="D15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E15" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F15" s="0">
-        <v>41.582271599999999</v>
+        <v>41.676354500000002</v>
       </c>
       <c r="G15" s="0">
-        <v>-85.834438300000002</v>
+        <v>-86.251989799998995</v>
       </c>
       <c r="H15" s="0">
-        <v>-85.834438300000002</v>
+        <v>-86.251989799998995</v>
       </c>
       <c r="I15" s="0">
-        <v>41.582271599999999</v>
+        <v>41.676354500000002</v>
       </c>
       <c r="J15" s="0">
         <v>16</v>
@@ -8918,28 +8918,28 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F16" s="0">
-        <v>41.676354500000002</v>
+        <v>41.582271599999999</v>
       </c>
       <c r="G16" s="0">
-        <v>-86.251989799998995</v>
+        <v>-85.834438300000002</v>
       </c>
       <c r="H16" s="0">
-        <v>-86.251989799998995</v>
+        <v>-85.834438300000002</v>
       </c>
       <c r="I16" s="0">
-        <v>41.676354500000002</v>
+        <v>41.582271599999999</v>
       </c>
       <c r="J16" s="0">
         <v>16</v>
@@ -9344,28 +9344,28 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>371</v>
       </c>
       <c r="D22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F22" s="0">
-        <v>36.188136499999999</v>
+        <v>36.1867442</v>
       </c>
       <c r="G22" s="0">
-        <v>-94.540496199998998</v>
+        <v>-94.1288141</v>
       </c>
       <c r="H22" s="0">
-        <v>-94.540496199998998</v>
+        <v>-94.1288141</v>
       </c>
       <c r="I22" s="0">
-        <v>36.188136499999999</v>
+        <v>36.1867442</v>
       </c>
       <c r="J22" s="0">
         <v>28</v>
@@ -9415,28 +9415,28 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>371</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E23" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F23" s="0">
-        <v>36.1867442</v>
+        <v>36.188136499999999</v>
       </c>
       <c r="G23" s="0">
-        <v>-94.1288141</v>
+        <v>-94.540496199998998</v>
       </c>
       <c r="H23" s="0">
-        <v>-94.1288141</v>
+        <v>-94.540496199998998</v>
       </c>
       <c r="I23" s="0">
-        <v>36.1867442</v>
+        <v>36.188136499999999</v>
       </c>
       <c r="J23" s="0">
         <v>28</v>
@@ -9841,28 +9841,28 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>371</v>
       </c>
       <c r="D29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E29" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F29" s="0">
-        <v>36.974117100000001</v>
+        <v>36.600237800000002</v>
       </c>
       <c r="G29" s="0">
-        <v>-122.03079630000001</v>
+        <v>-121.8946761</v>
       </c>
       <c r="H29" s="0">
-        <v>-122.03079630000001</v>
+        <v>-121.8946761</v>
       </c>
       <c r="I29" s="0">
-        <v>36.974117100000001</v>
+        <v>36.600237800000002</v>
       </c>
       <c r="J29" s="0">
         <v>36</v>
@@ -9912,28 +9912,28 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>371</v>
       </c>
       <c r="D30" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E30" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F30" s="0">
-        <v>36.600237800000002</v>
+        <v>36.974117100000001</v>
       </c>
       <c r="G30" s="0">
-        <v>-121.8946761</v>
+        <v>-122.03079630000001</v>
       </c>
       <c r="H30" s="0">
-        <v>-121.8946761</v>
+        <v>-122.03079630000001</v>
       </c>
       <c r="I30" s="0">
-        <v>36.600237800000002</v>
+        <v>36.974117100000001</v>
       </c>
       <c r="J30" s="0">
         <v>36</v>
@@ -10480,28 +10480,28 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>371</v>
       </c>
       <c r="D38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F38" s="0">
-        <v>37.8715926</v>
+        <v>37.804363700000003</v>
       </c>
       <c r="G38" s="0">
-        <v>-122.272747</v>
+        <v>-122.2711137</v>
       </c>
       <c r="H38" s="0">
-        <v>-122.272747</v>
+        <v>-122.2711137</v>
       </c>
       <c r="I38" s="0">
-        <v>37.8715926</v>
+        <v>37.804363700000003</v>
       </c>
       <c r="J38" s="0">
         <v>46</v>
@@ -10554,7 +10554,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D39" t="s">
         <v>482</v>
@@ -10622,28 +10622,28 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D40" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E40" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F40" s="0">
-        <v>37.804363700000003</v>
+        <v>37.8715926</v>
       </c>
       <c r="G40" s="0">
-        <v>-122.2711137</v>
+        <v>-122.272747</v>
       </c>
       <c r="H40" s="0">
-        <v>-122.2711137</v>
+        <v>-122.272747</v>
       </c>
       <c r="I40" s="0">
-        <v>37.804363700000003</v>
+        <v>37.8715926</v>
       </c>
       <c r="J40" s="0">
         <v>46</v>
@@ -11048,28 +11048,28 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D46" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E46" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F46" s="0">
-        <v>45.065521199999999</v>
+        <v>44.953702900000003</v>
       </c>
       <c r="G46" s="0">
-        <v>-93.201890800000001</v>
+        <v>-93.089957799998999</v>
       </c>
       <c r="H46" s="0">
-        <v>-93.201890800000001</v>
+        <v>-93.089957799998999</v>
       </c>
       <c r="I46" s="0">
-        <v>45.065521199999999</v>
+        <v>44.953702900000003</v>
       </c>
       <c r="J46" s="0">
         <v>54</v>
@@ -11119,28 +11119,28 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D47" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E47" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F47" s="0">
-        <v>44.953702900000003</v>
+        <v>45.065521199999999</v>
       </c>
       <c r="G47" s="0">
-        <v>-93.089957799998999</v>
+        <v>-93.201890800000001</v>
       </c>
       <c r="H47" s="0">
-        <v>-93.089957799998999</v>
+        <v>-93.201890800000001</v>
       </c>
       <c r="I47" s="0">
-        <v>44.953702900000003</v>
+        <v>45.065521199999999</v>
       </c>
       <c r="J47" s="0">
         <v>54</v>
@@ -11261,28 +11261,28 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
         <v>371</v>
       </c>
       <c r="D49" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E49" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F49" s="0">
-        <v>38.297538099999997</v>
+        <v>38.049365000000002</v>
       </c>
       <c r="G49" s="0">
-        <v>-122.28686500000001</v>
+        <v>-122.1585777</v>
       </c>
       <c r="H49" s="0">
-        <v>-122.28686500000001</v>
+        <v>-122.1585777</v>
       </c>
       <c r="I49" s="0">
-        <v>38.297538099999997</v>
+        <v>38.049365000000002</v>
       </c>
       <c r="J49" s="0">
         <v>57</v>
@@ -11332,28 +11332,28 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>371</v>
       </c>
       <c r="D50" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E50" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F50" s="0">
-        <v>38.440429000000002</v>
+        <v>38.297538099999997</v>
       </c>
       <c r="G50" s="0">
-        <v>-122.7140548</v>
+        <v>-122.28686500000001</v>
       </c>
       <c r="H50" s="0">
-        <v>-122.7140548</v>
+        <v>-122.28686500000001</v>
       </c>
       <c r="I50" s="0">
-        <v>38.440429000000002</v>
+        <v>38.297538099999997</v>
       </c>
       <c r="J50" s="0">
         <v>57</v>
@@ -11403,28 +11403,28 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
         <v>371</v>
       </c>
       <c r="D51" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E51" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F51" s="0">
-        <v>38.049365000000002</v>
+        <v>38.440429000000002</v>
       </c>
       <c r="G51" s="0">
-        <v>-122.1585777</v>
+        <v>-122.7140548</v>
       </c>
       <c r="H51" s="0">
-        <v>-122.1585777</v>
+        <v>-122.7140548</v>
       </c>
       <c r="I51" s="0">
-        <v>38.049365000000002</v>
+        <v>38.440429000000002</v>
       </c>
       <c r="J51" s="0">
         <v>57</v>
@@ -12681,28 +12681,28 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
         <v>371</v>
       </c>
       <c r="D69" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E69" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F69" s="0">
-        <v>44.311231199999902</v>
+        <v>44.942897500000001</v>
       </c>
       <c r="G69" s="0">
-        <v>-124.1048418</v>
+        <v>-123.03509630000001</v>
       </c>
       <c r="H69" s="0">
-        <v>-124.1048418</v>
+        <v>-123.03509630000001</v>
       </c>
       <c r="I69" s="0">
-        <v>44.311231199999902</v>
+        <v>44.942897500000001</v>
       </c>
       <c r="J69" s="0">
         <v>73</v>
@@ -12752,28 +12752,28 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
         <v>371</v>
       </c>
       <c r="D70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E70" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F70" s="0">
-        <v>44.942897500000001</v>
+        <v>44.311231199999902</v>
       </c>
       <c r="G70" s="0">
-        <v>-123.03509630000001</v>
+        <v>-124.1048418</v>
       </c>
       <c r="H70" s="0">
-        <v>-123.03509630000001</v>
+        <v>-124.1048418</v>
       </c>
       <c r="I70" s="0">
-        <v>44.942897500000001</v>
+        <v>44.311231199999902</v>
       </c>
       <c r="J70" s="0">
         <v>73</v>
@@ -12823,28 +12823,28 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>371</v>
       </c>
       <c r="D71" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E71" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F71" s="0">
-        <v>43.677025200000003</v>
+        <v>44.310624099999998</v>
       </c>
       <c r="G71" s="0">
-        <v>-70.371161700000002</v>
+        <v>-69.779489699999999</v>
       </c>
       <c r="H71" s="0">
-        <v>-70.371161700000002</v>
+        <v>-69.779489699999999</v>
       </c>
       <c r="I71" s="0">
-        <v>43.677025200000003</v>
+        <v>44.310624099999998</v>
       </c>
       <c r="J71" s="0">
         <v>74</v>
@@ -12894,28 +12894,28 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
         <v>371</v>
       </c>
       <c r="D72" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E72" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F72" s="0">
-        <v>44.310624099999998</v>
+        <v>43.677025200000003</v>
       </c>
       <c r="G72" s="0">
-        <v>-69.779489699999999</v>
+        <v>-70.371161700000002</v>
       </c>
       <c r="H72" s="0">
-        <v>-69.779489699999999</v>
+        <v>-70.371161700000002</v>
       </c>
       <c r="I72" s="0">
-        <v>44.310624099999998</v>
+        <v>43.677025200000003</v>
       </c>
       <c r="J72" s="0">
         <v>74</v>
@@ -12965,28 +12965,28 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
         <v>371</v>
       </c>
       <c r="D73" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E73" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F73" s="0">
-        <v>44.387611900000003</v>
+        <v>46.681152999999902</v>
       </c>
       <c r="G73" s="0">
-        <v>-68.203912299999999</v>
+        <v>-68.015861399998997</v>
       </c>
       <c r="H73" s="0">
-        <v>-68.203912299999999</v>
+        <v>-68.015861399998997</v>
       </c>
       <c r="I73" s="0">
-        <v>44.387611900000003</v>
+        <v>46.681152999999902</v>
       </c>
       <c r="J73" s="0">
         <v>75</v>
@@ -13036,28 +13036,28 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
         <v>371</v>
       </c>
       <c r="D74" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E74" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F74" s="0">
-        <v>44.765036599999902</v>
+        <v>44.387611900000003</v>
       </c>
       <c r="G74" s="0">
-        <v>-69.719380299999997</v>
+        <v>-68.203912299999999</v>
       </c>
       <c r="H74" s="0">
-        <v>-69.719380299999997</v>
+        <v>-68.203912299999999</v>
       </c>
       <c r="I74" s="0">
-        <v>44.765036599999902</v>
+        <v>44.387611900000003</v>
       </c>
       <c r="J74" s="0">
         <v>75</v>
@@ -13178,28 +13178,28 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
         <v>371</v>
       </c>
       <c r="D76" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E76" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F76" s="0">
-        <v>46.681152999999902</v>
+        <v>44.883112500000003</v>
       </c>
       <c r="G76" s="0">
-        <v>-68.015861399998997</v>
+        <v>-68.671941099999998</v>
       </c>
       <c r="H76" s="0">
-        <v>-68.015861399998997</v>
+        <v>-68.671941099999998</v>
       </c>
       <c r="I76" s="0">
-        <v>46.681152999999902</v>
+        <v>44.883112500000003</v>
       </c>
       <c r="J76" s="0">
         <v>75</v>
@@ -13249,28 +13249,28 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>371</v>
       </c>
       <c r="D77" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E77" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F77" s="0">
-        <v>44.883112500000003</v>
+        <v>44.765036599999902</v>
       </c>
       <c r="G77" s="0">
-        <v>-68.671941099999998</v>
+        <v>-69.719380299999997</v>
       </c>
       <c r="H77" s="0">
-        <v>-68.671941099999998</v>
+        <v>-69.719380299999997</v>
       </c>
       <c r="I77" s="0">
-        <v>44.883112500000003</v>
+        <v>44.765036599999902</v>
       </c>
       <c r="J77" s="0">
         <v>75</v>
@@ -13391,28 +13391,28 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
         <v>371</v>
       </c>
       <c r="D79" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E79" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F79" s="0">
-        <v>35.756471900000001</v>
+        <v>35.960638400000001</v>
       </c>
       <c r="G79" s="0">
-        <v>-83.970459300000002</v>
+        <v>-83.9207392</v>
       </c>
       <c r="H79" s="0">
-        <v>-83.970459300000002</v>
+        <v>-83.9207392</v>
       </c>
       <c r="I79" s="0">
-        <v>35.756471900000001</v>
+        <v>35.960638400000001</v>
       </c>
       <c r="J79" s="0">
         <v>77</v>
@@ -13462,28 +13462,28 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
         <v>371</v>
       </c>
       <c r="D80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E80" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F80" s="0">
-        <v>35.960638400000001</v>
+        <v>35.756471900000001</v>
       </c>
       <c r="G80" s="0">
-        <v>-83.9207392</v>
+        <v>-83.970459300000002</v>
       </c>
       <c r="H80" s="0">
-        <v>-83.9207392</v>
+        <v>-83.970459300000002</v>
       </c>
       <c r="I80" s="0">
-        <v>35.960638400000001</v>
+        <v>35.756471900000001</v>
       </c>
       <c r="J80" s="0">
         <v>77</v>
@@ -13888,28 +13888,28 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
         <v>371</v>
       </c>
       <c r="D86" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E86" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F86" s="0">
-        <v>42.271131099999998</v>
+        <v>42.416674399999998</v>
       </c>
       <c r="G86" s="0">
-        <v>-89.093995199999</v>
+        <v>-90.429016799999999</v>
       </c>
       <c r="H86" s="0">
-        <v>-89.093995199999</v>
+        <v>-90.429016799999999</v>
       </c>
       <c r="I86" s="0">
-        <v>42.271131099999998</v>
+        <v>42.416674399999998</v>
       </c>
       <c r="J86" s="0">
         <v>85</v>
@@ -13959,28 +13959,28 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C87" t="s">
         <v>371</v>
       </c>
       <c r="D87" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E87" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F87" s="0">
-        <v>42.416674399999998</v>
+        <v>42.271131099999998</v>
       </c>
       <c r="G87" s="0">
-        <v>-90.429016799999999</v>
+        <v>-89.093995199999</v>
       </c>
       <c r="H87" s="0">
-        <v>-90.429016799999999</v>
+        <v>-89.093995199999</v>
       </c>
       <c r="I87" s="0">
-        <v>42.416674399999998</v>
+        <v>42.271131099999998</v>
       </c>
       <c r="J87" s="0">
         <v>85</v>
@@ -14030,28 +14030,28 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
         <v>371</v>
       </c>
       <c r="D88" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E88" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F88" s="0">
-        <v>42.2411344</v>
+        <v>41.877529299999999</v>
       </c>
       <c r="G88" s="0">
-        <v>-88.316196499998995</v>
+        <v>-88.067011800000003</v>
       </c>
       <c r="H88" s="0">
-        <v>-88.316196499998995</v>
+        <v>-88.067011800000003</v>
       </c>
       <c r="I88" s="0">
-        <v>42.2411344</v>
+        <v>41.877529299999999</v>
       </c>
       <c r="J88" s="0">
         <v>86</v>
@@ -14101,28 +14101,28 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
         <v>371</v>
       </c>
       <c r="D89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E89" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F89" s="0">
-        <v>41.877529299999999</v>
+        <v>42.2411344</v>
       </c>
       <c r="G89" s="0">
-        <v>-88.067011800000003</v>
+        <v>-88.316196499998995</v>
       </c>
       <c r="H89" s="0">
-        <v>-88.067011800000003</v>
+        <v>-88.316196499998995</v>
       </c>
       <c r="I89" s="0">
-        <v>41.877529299999999</v>
+        <v>42.2411344</v>
       </c>
       <c r="J89" s="0">
         <v>86</v>
@@ -14527,28 +14527,28 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="D95" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E95" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F95" s="0">
-        <v>33.892046800000003</v>
+        <v>34.075376200000001</v>
       </c>
       <c r="G95" s="0">
-        <v>-84.298812599998996</v>
+        <v>-84.294089900000003</v>
       </c>
       <c r="H95" s="0">
-        <v>-84.298812599998996</v>
+        <v>-84.294089900000003</v>
       </c>
       <c r="I95" s="0">
-        <v>33.892046800000003</v>
+        <v>34.075376200000001</v>
       </c>
       <c r="J95" s="0">
         <v>101</v>
@@ -14598,28 +14598,28 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D96" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E96" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F96" s="0">
-        <v>34.075376200000001</v>
+        <v>33.892046800000003</v>
       </c>
       <c r="G96" s="0">
-        <v>-84.294089900000003</v>
+        <v>-84.298812599998996</v>
       </c>
       <c r="H96" s="0">
-        <v>-84.294089900000003</v>
+        <v>-84.298812599998996</v>
       </c>
       <c r="I96" s="0">
-        <v>34.075376200000001</v>
+        <v>33.892046800000003</v>
       </c>
       <c r="J96" s="0">
         <v>101</v>
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
         <v>371</v>
       </c>
       <c r="D116" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E116" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F116" s="0">
-        <v>43.366500700000003</v>
+        <v>44.052069099999997</v>
       </c>
       <c r="G116" s="0">
-        <v>-124.21789029999999</v>
+        <v>-123.08675359999999</v>
       </c>
       <c r="H116" s="0">
-        <v>-124.21789029999999</v>
+        <v>-123.08675359999999</v>
       </c>
       <c r="I116" s="0">
-        <v>43.366500700000003</v>
+        <v>44.052069099999997</v>
       </c>
       <c r="J116" s="0">
         <v>135</v>
@@ -16089,28 +16089,28 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C117" t="s">
         <v>371</v>
       </c>
       <c r="D117" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E117" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F117" s="0">
-        <v>44.052069099999997</v>
+        <v>43.366500700000003</v>
       </c>
       <c r="G117" s="0">
-        <v>-123.08675359999999</v>
+        <v>-124.21789029999999</v>
       </c>
       <c r="H117" s="0">
-        <v>-123.08675359999999</v>
+        <v>-124.21789029999999</v>
       </c>
       <c r="I117" s="0">
-        <v>44.052069099999997</v>
+        <v>43.366500700000003</v>
       </c>
       <c r="J117" s="0">
         <v>135</v>
@@ -16941,28 +16941,28 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="D129" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E129" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F129" s="0">
-        <v>26.142035799999999</v>
+        <v>26.640628</v>
       </c>
       <c r="G129" s="0">
-        <v>-81.794810299999</v>
+        <v>-81.872308399999</v>
       </c>
       <c r="H129" s="0">
-        <v>-81.794810299999</v>
+        <v>-81.872308399999</v>
       </c>
       <c r="I129" s="0">
-        <v>26.142035799999999</v>
+        <v>26.640628</v>
       </c>
       <c r="J129" s="0">
         <v>156</v>
@@ -17012,28 +17012,28 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="D130" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E130" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F130" s="0">
-        <v>26.640628</v>
+        <v>26.142035799999999</v>
       </c>
       <c r="G130" s="0">
-        <v>-81.872308399999</v>
+        <v>-81.794810299999</v>
       </c>
       <c r="H130" s="0">
-        <v>-81.872308399999</v>
+        <v>-81.794810299999</v>
       </c>
       <c r="I130" s="0">
-        <v>26.640628</v>
+        <v>26.142035799999999</v>
       </c>
       <c r="J130" s="0">
         <v>156</v>
@@ -17580,28 +17580,28 @@
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C138" t="s">
         <v>371</v>
       </c>
       <c r="D138" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E138" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F138" s="0">
-        <v>40.826489000000002</v>
+        <v>40.861488700000002</v>
       </c>
       <c r="G138" s="0">
-        <v>-74.106809099998998</v>
+        <v>-73.988194199999995</v>
       </c>
       <c r="H138" s="0">
-        <v>-74.106809099998998</v>
+        <v>-73.988194199999995</v>
       </c>
       <c r="I138" s="0">
-        <v>40.826489000000002</v>
+        <v>40.861488700000002</v>
       </c>
       <c r="J138" s="0">
         <v>176</v>
@@ -17651,28 +17651,28 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C139" t="s">
         <v>371</v>
       </c>
       <c r="D139" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E139" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F139" s="0">
-        <v>40.861488700000002</v>
+        <v>40.826489000000002</v>
       </c>
       <c r="G139" s="0">
-        <v>-73.988194199999995</v>
+        <v>-74.106809099998998</v>
       </c>
       <c r="H139" s="0">
-        <v>-73.988194199999995</v>
+        <v>-74.106809099998998</v>
       </c>
       <c r="I139" s="0">
-        <v>40.861488700000002</v>
+        <v>40.826489000000002</v>
       </c>
       <c r="J139" s="0">
         <v>176</v>
@@ -19852,28 +19852,28 @@
         <v>26</v>
       </c>
       <c r="B170" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C170" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="D170" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E170" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F170" s="0">
-        <v>42.3211522</v>
+        <v>42.9633599</v>
       </c>
       <c r="G170" s="0">
-        <v>-85.179714199998998</v>
+        <v>-85.668086299999999</v>
       </c>
       <c r="H170" s="0">
-        <v>-85.179714199998998</v>
+        <v>-85.668086299999999</v>
       </c>
       <c r="I170" s="0">
-        <v>42.3211522</v>
+        <v>42.9633599</v>
       </c>
       <c r="J170" s="0">
         <v>228</v>
@@ -19923,28 +19923,28 @@
         <v>26</v>
       </c>
       <c r="B171" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C171" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="D171" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E171" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F171" s="0">
-        <v>42.9633599</v>
+        <v>42.3211522</v>
       </c>
       <c r="G171" s="0">
-        <v>-85.668086299999999</v>
+        <v>-85.179714199998998</v>
       </c>
       <c r="H171" s="0">
-        <v>-85.668086299999999</v>
+        <v>-85.179714199998998</v>
       </c>
       <c r="I171" s="0">
-        <v>42.9633599</v>
+        <v>42.3211522</v>
       </c>
       <c r="J171" s="0">
         <v>228</v>
@@ -20420,28 +20420,28 @@
         <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="C178" t="s">
         <v>371</v>
       </c>
       <c r="D178" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E178" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F178" s="0">
-        <v>38.149576000000003</v>
+        <v>38.881778400000002</v>
       </c>
       <c r="G178" s="0">
-        <v>-79.071695800000001</v>
+        <v>-78.505842899998996</v>
       </c>
       <c r="H178" s="0">
-        <v>-79.071695800000001</v>
+        <v>-78.505842899998996</v>
       </c>
       <c r="I178" s="0">
-        <v>38.149576000000003</v>
+        <v>38.881778400000002</v>
       </c>
       <c r="J178" s="0">
         <v>238</v>
@@ -20491,28 +20491,28 @@
         <v>24</v>
       </c>
       <c r="B179" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="C179" t="s">
         <v>371</v>
       </c>
       <c r="D179" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E179" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F179" s="0">
-        <v>38.881778400000002</v>
+        <v>38.149576000000003</v>
       </c>
       <c r="G179" s="0">
-        <v>-78.505842899998996</v>
+        <v>-79.071695800000001</v>
       </c>
       <c r="H179" s="0">
-        <v>-78.505842899998996</v>
+        <v>-79.071695800000001</v>
       </c>
       <c r="I179" s="0">
-        <v>38.881778400000002</v>
+        <v>38.149576000000003</v>
       </c>
       <c r="J179" s="0">
         <v>238</v>
@@ -20633,28 +20633,28 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s">
         <v>371</v>
       </c>
       <c r="D181" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E181" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F181" s="0">
-        <v>46.064580900000003</v>
+        <v>47.658780200000002</v>
       </c>
       <c r="G181" s="0">
-        <v>-118.34302080000001</v>
+        <v>-117.4260465</v>
       </c>
       <c r="H181" s="0">
-        <v>-118.34302080000001</v>
+        <v>-117.4260465</v>
       </c>
       <c r="I181" s="0">
-        <v>46.064580900000003</v>
+        <v>47.658780200000002</v>
       </c>
       <c r="J181" s="0">
         <v>241</v>
@@ -20704,28 +20704,28 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C182" t="s">
         <v>371</v>
       </c>
       <c r="D182" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E182" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F182" s="0">
-        <v>47.658780200000002</v>
+        <v>46.7297771</v>
       </c>
       <c r="G182" s="0">
-        <v>-117.4260465</v>
+        <v>-117.1817377</v>
       </c>
       <c r="H182" s="0">
-        <v>-117.4260465</v>
+        <v>-117.1817377</v>
       </c>
       <c r="I182" s="0">
-        <v>47.658780200000002</v>
+        <v>46.7297771</v>
       </c>
       <c r="J182" s="0">
         <v>241</v>
@@ -20775,28 +20775,28 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C183" t="s">
         <v>371</v>
       </c>
       <c r="D183" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E183" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F183" s="0">
-        <v>46.7297771</v>
+        <v>46.064580900000003</v>
       </c>
       <c r="G183" s="0">
-        <v>-117.1817377</v>
+        <v>-118.34302080000001</v>
       </c>
       <c r="H183" s="0">
-        <v>-117.1817377</v>
+        <v>-118.34302080000001</v>
       </c>
       <c r="I183" s="0">
-        <v>46.7297771</v>
+        <v>46.064580900000003</v>
       </c>
       <c r="J183" s="0">
         <v>241</v>
@@ -21272,28 +21272,28 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C190" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="D190" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E190" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F190" s="0">
-        <v>46.977042999999902</v>
+        <v>47.252876800000003</v>
       </c>
       <c r="G190" s="0">
-        <v>-123.8839028</v>
+        <v>-122.4442906</v>
       </c>
       <c r="H190" s="0">
-        <v>-123.8839028</v>
+        <v>-122.4442906</v>
       </c>
       <c r="I190" s="0">
-        <v>46.977042999999902</v>
+        <v>47.252876800000003</v>
       </c>
       <c r="J190" s="0">
         <v>246</v>
@@ -21343,28 +21343,28 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C191" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="D191" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E191" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F191" s="0">
-        <v>47.252876800000003</v>
+        <v>46.977042999999902</v>
       </c>
       <c r="G191" s="0">
-        <v>-122.4442906</v>
+        <v>-123.8839028</v>
       </c>
       <c r="H191" s="0">
-        <v>-122.4442906</v>
+        <v>-123.8839028</v>
       </c>
       <c r="I191" s="0">
-        <v>47.252876800000003</v>
+        <v>46.977042999999902</v>
       </c>
       <c r="J191" s="0">
         <v>246</v>
@@ -21414,28 +21414,28 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C192" t="s">
         <v>371</v>
       </c>
       <c r="D192" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E192" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F192" s="0">
-        <v>46.996514400000002</v>
+        <v>47.5962326</v>
       </c>
       <c r="G192" s="0">
-        <v>-120.54784739999999</v>
+        <v>-120.66147650000001</v>
       </c>
       <c r="H192" s="0">
-        <v>-120.54784739999999</v>
+        <v>-120.66147650000001</v>
       </c>
       <c r="I192" s="0">
-        <v>46.996514400000002</v>
+        <v>47.5962326</v>
       </c>
       <c r="J192" s="0">
         <v>247</v>
@@ -21485,28 +21485,28 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C193" t="s">
         <v>371</v>
       </c>
       <c r="D193" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E193" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F193" s="0">
-        <v>47.5962326</v>
+        <v>46.996514400000002</v>
       </c>
       <c r="G193" s="0">
-        <v>-120.66147650000001</v>
+        <v>-120.54784739999999</v>
       </c>
       <c r="H193" s="0">
-        <v>-120.66147650000001</v>
+        <v>-120.54784739999999</v>
       </c>
       <c r="I193" s="0">
-        <v>47.5962326</v>
+        <v>46.996514400000002</v>
       </c>
       <c r="J193" s="0">
         <v>247</v>
@@ -21556,28 +21556,28 @@
         <v>18</v>
       </c>
       <c r="B194" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C194" t="s">
         <v>371</v>
       </c>
       <c r="D194" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E194" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F194" s="0">
-        <v>40.717754499999998</v>
+        <v>40.743990500000002</v>
       </c>
       <c r="G194" s="0">
-        <v>-74.043143499999999</v>
+        <v>-74.032362599999999</v>
       </c>
       <c r="H194" s="0">
-        <v>-74.043143499999999</v>
+        <v>-74.032362599999999</v>
       </c>
       <c r="I194" s="0">
-        <v>40.717754499999998</v>
+        <v>40.743990500000002</v>
       </c>
       <c r="J194" s="0">
         <v>248</v>
@@ -21627,28 +21627,28 @@
         <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C195" t="s">
         <v>371</v>
       </c>
       <c r="D195" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E195" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F195" s="0">
-        <v>40.743990500000002</v>
+        <v>40.663991600000003</v>
       </c>
       <c r="G195" s="0">
-        <v>-74.032362599999999</v>
+        <v>-74.210700599999996</v>
       </c>
       <c r="H195" s="0">
-        <v>-74.032362599999999</v>
+        <v>-74.210700599999996</v>
       </c>
       <c r="I195" s="0">
-        <v>40.743990500000002</v>
+        <v>40.663991600000003</v>
       </c>
       <c r="J195" s="0">
         <v>248</v>
@@ -21698,28 +21698,28 @@
         <v>18</v>
       </c>
       <c r="B196" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C196" t="s">
         <v>371</v>
       </c>
       <c r="D196" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E196" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F196" s="0">
-        <v>40.663991600000003</v>
+        <v>40.717754499999998</v>
       </c>
       <c r="G196" s="0">
-        <v>-74.210700599999996</v>
+        <v>-74.043143499999999</v>
       </c>
       <c r="H196" s="0">
-        <v>-74.210700599999996</v>
+        <v>-74.043143499999999</v>
       </c>
       <c r="I196" s="0">
-        <v>40.663991600000003</v>
+        <v>40.717754499999998</v>
       </c>
       <c r="J196" s="0">
         <v>248</v>
@@ -22550,28 +22550,28 @@
         <v>30</v>
       </c>
       <c r="B208" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C208" t="s">
         <v>371</v>
       </c>
       <c r="D208" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E208" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F208" s="0">
-        <v>42.975268</v>
+        <v>44.490543299999999</v>
       </c>
       <c r="G208" s="0">
-        <v>-72.521723699999995</v>
+        <v>-73.111220699998995</v>
       </c>
       <c r="H208" s="0">
-        <v>-72.521723699999995</v>
+        <v>-73.111220699998995</v>
       </c>
       <c r="I208" s="0">
-        <v>42.975268</v>
+        <v>44.490543299999999</v>
       </c>
       <c r="J208" s="0">
         <v>265</v>
@@ -22621,28 +22621,28 @@
         <v>30</v>
       </c>
       <c r="B209" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="C209" t="s">
         <v>371</v>
       </c>
       <c r="D209" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E209" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F209" s="0">
-        <v>44.475882499999997</v>
+        <v>42.850915200000003</v>
       </c>
       <c r="G209" s="0">
-        <v>-73.212071999998997</v>
+        <v>-72.557867799999997</v>
       </c>
       <c r="H209" s="0">
-        <v>-73.212071999998997</v>
+        <v>-72.557867799999997</v>
       </c>
       <c r="I209" s="0">
-        <v>44.475882499999997</v>
+        <v>42.850915200000003</v>
       </c>
       <c r="J209" s="0">
         <v>265</v>
@@ -22692,28 +22692,28 @@
         <v>30</v>
       </c>
       <c r="B210" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="C210" t="s">
         <v>371</v>
       </c>
       <c r="D210" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E210" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F210" s="0">
-        <v>42.878134500000002</v>
+        <v>44.405313499999998</v>
       </c>
       <c r="G210" s="0">
-        <v>-73.196774099999999</v>
+        <v>-72.992412799999997</v>
       </c>
       <c r="H210" s="0">
-        <v>-73.196774099999999</v>
+        <v>-72.992412799999997</v>
       </c>
       <c r="I210" s="0">
-        <v>42.878134500000002</v>
+        <v>44.405313499999998</v>
       </c>
       <c r="J210" s="0">
         <v>265</v>
@@ -22763,28 +22763,28 @@
         <v>30</v>
       </c>
       <c r="B211" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="C211" t="s">
         <v>371</v>
       </c>
       <c r="D211" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E211" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F211" s="0">
-        <v>42.850915200000003</v>
+        <v>44.475882499999997</v>
       </c>
       <c r="G211" s="0">
-        <v>-72.557867799999997</v>
+        <v>-73.212071999998997</v>
       </c>
       <c r="H211" s="0">
-        <v>-72.557867799999997</v>
+        <v>-73.212071999998997</v>
       </c>
       <c r="I211" s="0">
-        <v>42.850915200000003</v>
+        <v>44.475882499999997</v>
       </c>
       <c r="J211" s="0">
         <v>265</v>
@@ -22834,28 +22834,28 @@
         <v>30</v>
       </c>
       <c r="B212" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C212" t="s">
         <v>371</v>
       </c>
       <c r="D212" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E212" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F212" s="0">
-        <v>44.490543299999999</v>
+        <v>42.878134500000002</v>
       </c>
       <c r="G212" s="0">
-        <v>-73.111220699998995</v>
+        <v>-73.196774099999999</v>
       </c>
       <c r="H212" s="0">
-        <v>-73.111220699998995</v>
+        <v>-73.196774099999999</v>
       </c>
       <c r="I212" s="0">
-        <v>44.490543299999999</v>
+        <v>42.878134500000002</v>
       </c>
       <c r="J212" s="0">
         <v>265</v>
@@ -22905,28 +22905,28 @@
         <v>30</v>
       </c>
       <c r="B213" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C213" t="s">
         <v>371</v>
       </c>
       <c r="D213" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E213" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F213" s="0">
-        <v>44.405313499999998</v>
+        <v>42.975268</v>
       </c>
       <c r="G213" s="0">
-        <v>-72.992412799999997</v>
+        <v>-72.521723699999995</v>
       </c>
       <c r="H213" s="0">
-        <v>-72.992412799999997</v>
+        <v>-72.521723699999995</v>
       </c>
       <c r="I213" s="0">
-        <v>44.405313499999998</v>
+        <v>42.975268</v>
       </c>
       <c r="J213" s="0">
         <v>265</v>
@@ -23544,28 +23544,28 @@
         <v>33</v>
       </c>
       <c r="B222" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C222" t="s">
         <v>371</v>
       </c>
       <c r="D222" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E222" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F222" s="0">
-        <v>41.3890052</v>
+        <v>41.652491099999999</v>
       </c>
       <c r="G222" s="0">
-        <v>-70.513359899999998</v>
+        <v>-70.288112400000003</v>
       </c>
       <c r="H222" s="0">
-        <v>-70.513359899999998</v>
+        <v>-70.288112400000003</v>
       </c>
       <c r="I222" s="0">
-        <v>41.3890052</v>
+        <v>41.652491099999999</v>
       </c>
       <c r="J222" s="0">
         <v>278</v>
@@ -23615,28 +23615,28 @@
         <v>33</v>
       </c>
       <c r="B223" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C223" t="s">
         <v>371</v>
       </c>
       <c r="D223" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E223" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F223" s="0">
-        <v>41.652491099999999</v>
+        <v>42.058441199999997</v>
       </c>
       <c r="G223" s="0">
-        <v>-70.288112400000003</v>
+        <v>-70.178642499999995</v>
       </c>
       <c r="H223" s="0">
-        <v>-70.288112400000003</v>
+        <v>-70.178642499999995</v>
       </c>
       <c r="I223" s="0">
-        <v>41.652491099999999</v>
+        <v>42.058441199999997</v>
       </c>
       <c r="J223" s="0">
         <v>278</v>
@@ -23686,28 +23686,28 @@
         <v>33</v>
       </c>
       <c r="B224" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C224" t="s">
         <v>371</v>
       </c>
       <c r="D224" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E224" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F224" s="0">
-        <v>42.058441199999997</v>
+        <v>41.3890052</v>
       </c>
       <c r="G224" s="0">
-        <v>-70.178642499999995</v>
+        <v>-70.513359899999998</v>
       </c>
       <c r="H224" s="0">
-        <v>-70.178642499999995</v>
+        <v>-70.513359899999998</v>
       </c>
       <c r="I224" s="0">
-        <v>42.058441199999997</v>
+        <v>41.3890052</v>
       </c>
       <c r="J224" s="0">
         <v>278</v>
@@ -24183,28 +24183,28 @@
         <v>36</v>
       </c>
       <c r="B231" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C231" t="s">
         <v>371</v>
       </c>
       <c r="D231" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E231" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F231" s="0">
-        <v>43.813775100000001</v>
+        <v>43.556917400000003</v>
       </c>
       <c r="G231" s="0">
-        <v>-91.251901699998996</v>
+        <v>-90.888741299998998</v>
       </c>
       <c r="H231" s="0">
-        <v>-91.251901699998996</v>
+        <v>-90.888741299998998</v>
       </c>
       <c r="I231" s="0">
-        <v>43.813775100000001</v>
+        <v>43.556917400000003</v>
       </c>
       <c r="J231" s="0">
         <v>288</v>
@@ -24254,28 +24254,28 @@
         <v>36</v>
       </c>
       <c r="B232" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C232" t="s">
         <v>371</v>
       </c>
       <c r="D232" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E232" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F232" s="0">
-        <v>43.556917400000003</v>
+        <v>43.813775100000001</v>
       </c>
       <c r="G232" s="0">
-        <v>-90.888741299998998</v>
+        <v>-91.251901699998996</v>
       </c>
       <c r="H232" s="0">
-        <v>-90.888741299998998</v>
+        <v>-91.251901699998996</v>
       </c>
       <c r="I232" s="0">
-        <v>43.556917400000003</v>
+        <v>43.813775100000001</v>
       </c>
       <c r="J232" s="0">
         <v>288</v>
@@ -24325,28 +24325,28 @@
         <v>36</v>
       </c>
       <c r="B233" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C233" t="s">
         <v>371</v>
       </c>
       <c r="D233" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E233" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F233" s="0">
-        <v>42.928894399999997</v>
+        <v>43.049457199999999</v>
       </c>
       <c r="G233" s="0">
-        <v>-88.837050899998999</v>
+        <v>-88.0075875</v>
       </c>
       <c r="H233" s="0">
-        <v>-88.837050899998999</v>
+        <v>-88.0075875</v>
       </c>
       <c r="I233" s="0">
-        <v>42.928894399999997</v>
+        <v>43.049457199999999</v>
       </c>
       <c r="J233" s="0">
         <v>290</v>
@@ -24396,28 +24396,28 @@
         <v>36</v>
       </c>
       <c r="B234" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C234" t="s">
         <v>371</v>
       </c>
       <c r="D234" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E234" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F234" s="0">
-        <v>43.049457199999999</v>
+        <v>42.928894399999997</v>
       </c>
       <c r="G234" s="0">
-        <v>-88.0075875</v>
+        <v>-88.837050899998999</v>
       </c>
       <c r="H234" s="0">
-        <v>-88.0075875</v>
+        <v>-88.837050899998999</v>
       </c>
       <c r="I234" s="0">
-        <v>43.049457199999999</v>
+        <v>42.928894399999997</v>
       </c>
       <c r="J234" s="0">
         <v>290</v>
@@ -24896,7 +24896,7 @@
         <v>277</v>
       </c>
       <c r="C241" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="D241" t="s">
         <v>680</v>
@@ -24967,7 +24967,7 @@
         <v>277</v>
       </c>
       <c r="C242" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="D242" t="s">
         <v>680</v>
@@ -25035,28 +25035,28 @@
         <v>37</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" t="s">
         <v>371</v>
       </c>
       <c r="D243" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E243" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F243" s="0">
-        <v>35.734453799999997</v>
+        <v>35.617895099999998</v>
       </c>
       <c r="G243" s="0">
-        <v>-81.344457300000002</v>
+        <v>-82.321230200000002</v>
       </c>
       <c r="H243" s="0">
-        <v>-81.344457300000002</v>
+        <v>-82.321230200000002</v>
       </c>
       <c r="I243" s="0">
-        <v>35.734453799999997</v>
+        <v>35.617895099999998</v>
       </c>
       <c r="J243" s="0">
         <v>300</v>
@@ -25106,28 +25106,28 @@
         <v>37</v>
       </c>
       <c r="B244" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C244" t="s">
         <v>371</v>
       </c>
       <c r="D244" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E244" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F244" s="0">
-        <v>35.617895099999998</v>
+        <v>35.734453799999997</v>
       </c>
       <c r="G244" s="0">
-        <v>-82.321230200000002</v>
+        <v>-81.344457300000002</v>
       </c>
       <c r="H244" s="0">
-        <v>-82.321230200000002</v>
+        <v>-81.344457300000002</v>
       </c>
       <c r="I244" s="0">
-        <v>35.617895099999998</v>
+        <v>35.734453799999997</v>
       </c>
       <c r="J244" s="0">
         <v>300</v>
@@ -25177,28 +25177,28 @@
         <v>37</v>
       </c>
       <c r="B245" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C245" t="s">
         <v>371</v>
       </c>
       <c r="D245" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E245" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F245" s="0">
-        <v>35.9101438</v>
+        <v>35.779589700000002</v>
       </c>
       <c r="G245" s="0">
-        <v>-79.075289499999997</v>
+        <v>-78.638178699999997</v>
       </c>
       <c r="H245" s="0">
-        <v>-79.075289499999997</v>
+        <v>-78.638178699999997</v>
       </c>
       <c r="I245" s="0">
-        <v>35.9101438</v>
+        <v>35.779589700000002</v>
       </c>
       <c r="J245" s="0">
         <v>301</v>
@@ -25248,28 +25248,28 @@
         <v>37</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s">
         <v>371</v>
       </c>
       <c r="D246" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E246" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F246" s="0">
-        <v>35.779589700000002</v>
+        <v>35.9101438</v>
       </c>
       <c r="G246" s="0">
-        <v>-78.638178699999997</v>
+        <v>-79.075289499999997</v>
       </c>
       <c r="H246" s="0">
-        <v>-78.638178699999997</v>
+        <v>-79.075289499999997</v>
       </c>
       <c r="I246" s="0">
-        <v>35.779589700000002</v>
+        <v>35.9101438</v>
       </c>
       <c r="J246" s="0">
         <v>301</v>
@@ -26242,28 +26242,28 @@
         <v>41</v>
       </c>
       <c r="B260" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C260" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="D260" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E260" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F260" s="0">
-        <v>40.353992599999998</v>
+        <v>40.310106300000001</v>
       </c>
       <c r="G260" s="0">
-        <v>-75.304898199999997</v>
+        <v>-75.129893899999999</v>
       </c>
       <c r="H260" s="0">
-        <v>-75.304898199999997</v>
+        <v>-75.129893899999999</v>
       </c>
       <c r="I260" s="0">
-        <v>40.353992599999998</v>
+        <v>40.310106300000001</v>
       </c>
       <c r="J260" s="0">
         <v>317</v>
@@ -26313,28 +26313,28 @@
         <v>41</v>
       </c>
       <c r="B261" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C261" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="D261" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E261" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F261" s="0">
-        <v>40.310106300000001</v>
+        <v>40.353992599999998</v>
       </c>
       <c r="G261" s="0">
-        <v>-75.129893899999999</v>
+        <v>-75.304898199999997</v>
       </c>
       <c r="H261" s="0">
-        <v>-75.129893899999999</v>
+        <v>-75.304898199999997</v>
       </c>
       <c r="I261" s="0">
-        <v>40.310106300000001</v>
+        <v>40.353992599999998</v>
       </c>
       <c r="J261" s="0">
         <v>317</v>
@@ -26526,28 +26526,28 @@
         <v>41</v>
       </c>
       <c r="B264" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C264" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D264" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E264" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F264" s="0">
-        <v>40.301458099999998</v>
+        <v>40.235396299999998</v>
       </c>
       <c r="G264" s="0">
-        <v>-79.538928900000002</v>
+        <v>-79.470388499999999</v>
       </c>
       <c r="H264" s="0">
-        <v>-79.538928900000002</v>
+        <v>-79.470388499999999</v>
       </c>
       <c r="I264" s="0">
-        <v>40.301458099999998</v>
+        <v>40.235396299999998</v>
       </c>
       <c r="J264" s="0">
         <v>322</v>
@@ -26597,28 +26597,28 @@
         <v>41</v>
       </c>
       <c r="B265" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C265" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="D265" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E265" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F265" s="0">
-        <v>40.235396299999998</v>
+        <v>40.301458099999998</v>
       </c>
       <c r="G265" s="0">
-        <v>-79.470388499999999</v>
+        <v>-79.538928900000002</v>
       </c>
       <c r="H265" s="0">
-        <v>-79.470388499999999</v>
+        <v>-79.538928900000002</v>
       </c>
       <c r="I265" s="0">
-        <v>40.235396299999998</v>
+        <v>40.301458099999998</v>
       </c>
       <c r="J265" s="0">
         <v>322</v>
@@ -26742,7 +26742,7 @@
         <v>300</v>
       </c>
       <c r="C267" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D267" t="s">
         <v>703</v>
@@ -26813,7 +26813,7 @@
         <v>300</v>
       </c>
       <c r="C268" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D268" t="s">
         <v>703</v>
@@ -27307,28 +27307,28 @@
         <v>41</v>
       </c>
       <c r="B275" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C275" t="s">
         <v>371</v>
       </c>
       <c r="D275" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E275" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F275" s="0">
-        <v>40.793394900000003</v>
+        <v>41.908684800000003</v>
       </c>
       <c r="G275" s="0">
-        <v>-77.860001199999999</v>
+        <v>-77.1330265</v>
       </c>
       <c r="H275" s="0">
-        <v>-77.860001199999999</v>
+        <v>-77.1330265</v>
       </c>
       <c r="I275" s="0">
-        <v>40.793394900000003</v>
+        <v>41.908684800000003</v>
       </c>
       <c r="J275" s="0">
         <v>333</v>
@@ -27378,28 +27378,28 @@
         <v>41</v>
       </c>
       <c r="B276" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C276" t="s">
         <v>371</v>
       </c>
       <c r="D276" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E276" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F276" s="0">
-        <v>41.908684800000003</v>
+        <v>40.793394900000003</v>
       </c>
       <c r="G276" s="0">
-        <v>-77.1330265</v>
+        <v>-77.860001199999999</v>
       </c>
       <c r="H276" s="0">
-        <v>-77.1330265</v>
+        <v>-77.860001199999999</v>
       </c>
       <c r="I276" s="0">
-        <v>41.908684800000003</v>
+        <v>40.793394900000003</v>
       </c>
       <c r="J276" s="0">
         <v>333</v>
@@ -28656,28 +28656,28 @@
         <v>42</v>
       </c>
       <c r="B294" t="s">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="C294" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="D294" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E294" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F294" s="0">
-        <v>33.031450800000002</v>
+        <v>35.189442999999997</v>
       </c>
       <c r="G294" s="0">
-        <v>-111.3873431</v>
+        <v>-114.0530065</v>
       </c>
       <c r="H294" s="0">
-        <v>-111.3873431</v>
+        <v>-114.0530065</v>
       </c>
       <c r="I294" s="0">
-        <v>33.031450800000002</v>
+        <v>35.189442999999997</v>
       </c>
       <c r="J294" s="0">
         <v>360</v>
@@ -28727,28 +28727,28 @@
         <v>42</v>
       </c>
       <c r="B295" t="s">
-        <v>324</v>
+        <v>161</v>
       </c>
       <c r="C295" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="D295" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E295" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F295" s="0">
-        <v>35.189442999999997</v>
+        <v>33.031450800000002</v>
       </c>
       <c r="G295" s="0">
-        <v>-114.0530065</v>
+        <v>-111.3873431</v>
       </c>
       <c r="H295" s="0">
-        <v>-114.0530065</v>
+        <v>-111.3873431</v>
       </c>
       <c r="I295" s="0">
-        <v>35.189442999999997</v>
+        <v>33.031450800000002</v>
       </c>
       <c r="J295" s="0">
         <v>360</v>
@@ -29369,7 +29369,7 @@
         <v>332</v>
       </c>
       <c r="C304" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="D304" t="s">
         <v>737</v>
@@ -29440,7 +29440,7 @@
         <v>332</v>
       </c>
       <c r="C305" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="D305" t="s">
         <v>737</v>
@@ -30147,28 +30147,28 @@
         <v>46</v>
       </c>
       <c r="B315" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C315" t="s">
         <v>371</v>
       </c>
       <c r="D315" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E315" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F315" s="0">
-        <v>37.096527799999997</v>
+        <v>40.760779300000003</v>
       </c>
       <c r="G315" s="0">
-        <v>-113.5684164</v>
+        <v>-111.89104740000001</v>
       </c>
       <c r="H315" s="0">
-        <v>-113.5684164</v>
+        <v>-111.89104740000001</v>
       </c>
       <c r="I315" s="0">
-        <v>37.096527799999997</v>
+        <v>40.760779300000003</v>
       </c>
       <c r="J315" s="0">
         <v>410</v>
@@ -30218,28 +30218,28 @@
         <v>46</v>
       </c>
       <c r="B316" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C316" t="s">
         <v>371</v>
       </c>
       <c r="D316" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E316" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F316" s="0">
-        <v>40.760779300000003</v>
+        <v>37.096527799999997</v>
       </c>
       <c r="G316" s="0">
-        <v>-111.89104740000001</v>
+        <v>-113.5684164</v>
       </c>
       <c r="H316" s="0">
-        <v>-111.89104740000001</v>
+        <v>-113.5684164</v>
       </c>
       <c r="I316" s="0">
-        <v>40.760779300000003</v>
+        <v>37.096527799999997</v>
       </c>
       <c r="J316" s="0">
         <v>410</v>
@@ -30360,28 +30360,28 @@
         <v>47</v>
       </c>
       <c r="B318" t="s">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="C318" t="s">
         <v>371</v>
       </c>
       <c r="D318" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E318" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F318" s="0">
-        <v>41.140836299999997</v>
+        <v>41.304539899999902</v>
       </c>
       <c r="G318" s="0">
-        <v>-73.261261500000003</v>
+        <v>-73.392898000000002</v>
       </c>
       <c r="H318" s="0">
-        <v>-73.261261500000003</v>
+        <v>-73.392898000000002</v>
       </c>
       <c r="I318" s="0">
-        <v>41.140836299999997</v>
+        <v>41.304539899999902</v>
       </c>
       <c r="J318" s="0">
         <v>413</v>
@@ -30431,28 +30431,28 @@
         <v>47</v>
       </c>
       <c r="B319" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C319" t="s">
-        <v>442</v>
+        <v>371</v>
       </c>
       <c r="D319" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E319" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F319" s="0">
-        <v>41.141471699999997</v>
+        <v>41.140836299999997</v>
       </c>
       <c r="G319" s="0">
-        <v>-73.357904899998999</v>
+        <v>-73.261261500000003</v>
       </c>
       <c r="H319" s="0">
-        <v>-73.357904899998999</v>
+        <v>-73.261261500000003</v>
       </c>
       <c r="I319" s="0">
-        <v>41.141471699999997</v>
+        <v>41.140836299999997</v>
       </c>
       <c r="J319" s="0">
         <v>413</v>
@@ -30502,28 +30502,28 @@
         <v>47</v>
       </c>
       <c r="B320" t="s">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="C320" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="D320" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E320" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F320" s="0">
-        <v>41.304539899999902</v>
+        <v>41.141471699999997</v>
       </c>
       <c r="G320" s="0">
-        <v>-73.392898000000002</v>
+        <v>-73.357904899998999</v>
       </c>
       <c r="H320" s="0">
-        <v>-73.392898000000002</v>
+        <v>-73.357904899998999</v>
       </c>
       <c r="I320" s="0">
-        <v>41.304539899999902</v>
+        <v>41.141471699999997</v>
       </c>
       <c r="J320" s="0">
         <v>413</v>
@@ -30857,28 +30857,28 @@
         <v>48</v>
       </c>
       <c r="B325" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C325" t="s">
         <v>371</v>
       </c>
       <c r="D325" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E325" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F325" s="0">
-        <v>46.589145199999997</v>
+        <v>45.676997900000003</v>
       </c>
       <c r="G325" s="0">
-        <v>-112.03910569999999</v>
+        <v>-111.04293389999999</v>
       </c>
       <c r="H325" s="0">
-        <v>-112.03910569999999</v>
+        <v>-111.04293389999999</v>
       </c>
       <c r="I325" s="0">
-        <v>46.589145199999997</v>
+        <v>45.676997900000003</v>
       </c>
       <c r="J325" s="0">
         <v>417</v>
@@ -30928,28 +30928,28 @@
         <v>48</v>
       </c>
       <c r="B326" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C326" t="s">
         <v>371</v>
       </c>
       <c r="D326" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E326" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F326" s="0">
-        <v>45.676997900000003</v>
+        <v>46.589145199999997</v>
       </c>
       <c r="G326" s="0">
-        <v>-111.04293389999999</v>
+        <v>-112.03910569999999</v>
       </c>
       <c r="H326" s="0">
-        <v>-111.04293389999999</v>
+        <v>-112.03910569999999</v>
       </c>
       <c r="I326" s="0">
-        <v>45.676997900000003</v>
+        <v>46.589145199999997</v>
       </c>
       <c r="J326" s="0">
         <v>417</v>
@@ -31141,28 +31141,28 @@
         <v>49</v>
       </c>
       <c r="B329" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C329" t="s">
         <v>371</v>
       </c>
       <c r="D329" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E329" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F329" s="0">
-        <v>41.088707300000003</v>
+        <v>41.1489458</v>
       </c>
       <c r="G329" s="0">
-        <v>-74.013472999998996</v>
+        <v>-73.983002900000002</v>
       </c>
       <c r="H329" s="0">
-        <v>-74.013472999998996</v>
+        <v>-73.983002900000002</v>
       </c>
       <c r="I329" s="0">
-        <v>41.088707300000003</v>
+        <v>41.1489458</v>
       </c>
       <c r="J329" s="0">
         <v>421</v>
@@ -31212,28 +31212,28 @@
         <v>49</v>
       </c>
       <c r="B330" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C330" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
       <c r="D330" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E330" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F330" s="0">
-        <v>41.1489458</v>
+        <v>41.159539899999999</v>
       </c>
       <c r="G330" s="0">
-        <v>-73.983002900000002</v>
+        <v>-73.764854999999997</v>
       </c>
       <c r="H330" s="0">
-        <v>-73.983002900000002</v>
+        <v>-73.764854999999997</v>
       </c>
       <c r="I330" s="0">
-        <v>41.1489458</v>
+        <v>41.159539899999999</v>
       </c>
       <c r="J330" s="0">
         <v>421</v>
@@ -31283,28 +31283,28 @@
         <v>49</v>
       </c>
       <c r="B331" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C331" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="D331" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E331" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F331" s="0">
-        <v>41.159539899999999</v>
+        <v>41.088707300000003</v>
       </c>
       <c r="G331" s="0">
-        <v>-73.764854999999997</v>
+        <v>-74.013472999998996</v>
       </c>
       <c r="H331" s="0">
-        <v>-73.764854999999997</v>
+        <v>-74.013472999998996</v>
       </c>
       <c r="I331" s="0">
-        <v>41.159539899999999</v>
+        <v>41.088707300000003</v>
       </c>
       <c r="J331" s="0">
         <v>421</v>
@@ -31851,28 +31851,28 @@
         <v>49</v>
       </c>
       <c r="B339" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="C339" t="s">
         <v>371</v>
       </c>
       <c r="D339" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E339" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F339" s="0">
-        <v>43.044848299999998</v>
+        <v>43.3095164</v>
       </c>
       <c r="G339" s="0">
-        <v>-73.630072900000002</v>
+        <v>-73.644005800000002</v>
       </c>
       <c r="H339" s="0">
-        <v>-73.630072900000002</v>
+        <v>-73.644005800000002</v>
       </c>
       <c r="I339" s="0">
-        <v>43.044848299999998</v>
+        <v>43.3095164</v>
       </c>
       <c r="J339" s="0">
         <v>437</v>
@@ -31922,28 +31922,28 @@
         <v>49</v>
       </c>
       <c r="B340" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C340" t="s">
         <v>371</v>
       </c>
       <c r="D340" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E340" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F340" s="0">
-        <v>44.329495999999999</v>
+        <v>44.133951199999998</v>
       </c>
       <c r="G340" s="0">
-        <v>-74.131266199999999</v>
+        <v>-74.9210219</v>
       </c>
       <c r="H340" s="0">
-        <v>-74.131266199999999</v>
+        <v>-74.9210219</v>
       </c>
       <c r="I340" s="0">
-        <v>44.329495999999999</v>
+        <v>44.133951199999998</v>
       </c>
       <c r="J340" s="0">
         <v>437</v>
@@ -31993,28 +31993,28 @@
         <v>49</v>
       </c>
       <c r="B341" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C341" t="s">
         <v>371</v>
       </c>
       <c r="D341" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E341" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F341" s="0">
-        <v>44.133951199999998</v>
+        <v>44.329495999999999</v>
       </c>
       <c r="G341" s="0">
-        <v>-74.9210219</v>
+        <v>-74.131266199999999</v>
       </c>
       <c r="H341" s="0">
-        <v>-74.9210219</v>
+        <v>-74.131266199999999</v>
       </c>
       <c r="I341" s="0">
-        <v>44.133951199999998</v>
+        <v>44.329495999999999</v>
       </c>
       <c r="J341" s="0">
         <v>437</v>
@@ -32064,28 +32064,28 @@
         <v>49</v>
       </c>
       <c r="B342" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="C342" t="s">
         <v>371</v>
       </c>
       <c r="D342" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E342" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F342" s="0">
-        <v>43.3095164</v>
+        <v>43.044848299999998</v>
       </c>
       <c r="G342" s="0">
-        <v>-73.644005800000002</v>
+        <v>-73.630072900000002</v>
       </c>
       <c r="H342" s="0">
-        <v>-73.644005800000002</v>
+        <v>-73.630072900000002</v>
       </c>
       <c r="I342" s="0">
-        <v>43.3095164</v>
+        <v>43.044848299999998</v>
       </c>
       <c r="J342" s="0">
         <v>437</v>
